--- a/ファイル/テスト/就職活動支援_テスト仕様書.xlsx
+++ b/ファイル/テスト/就職活動支援_テスト仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shimozhenzhi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shimozhenzhi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FCF15D-2138-F148-A4FD-FA7002183C95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358BC396-71C2-1242-ABE6-3966FDDF0C01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{3E863AE8-B30F-344F-BAC4-C16EDC9D9774}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{3E863AE8-B30F-344F-BAC4-C16EDC9D9774}"/>
   </bookViews>
   <sheets>
     <sheet name="学生用" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="111">
   <si>
     <t>テスト項目No</t>
     <rPh sb="0" eb="2">
@@ -673,6 +673,42 @@
     <t>説明会編集画面に移動</t>
     <rPh sb="0" eb="1">
       <t>セツメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◯</t>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更したキャラを表示させる場所がない</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面に遷移しない</t>
+    <rPh sb="0" eb="1">
+      <t>ガメn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -681,7 +717,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -694,6 +730,23 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -712,7 +765,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -814,24 +867,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,9 +904,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -879,6 +918,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4C3E6E-715B-1D4B-8DAC-9D5F2172EA6B}">
   <dimension ref="B1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1207,6 +1255,7 @@
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="69.42578125" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
@@ -1253,7 +1302,9 @@
       <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="2:8" ht="42">
@@ -1272,7 +1323,9 @@
       <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" ht="42">
@@ -1291,7 +1344,9 @@
       <c r="F6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="2:8">
@@ -1310,7 +1365,9 @@
       <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:8">
@@ -1329,7 +1386,9 @@
       <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="2:8">
@@ -1348,8 +1407,12 @@
       <c r="F9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="5">
@@ -1367,7 +1430,9 @@
       <c r="F10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8">
@@ -1386,7 +1451,9 @@
       <c r="F11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:8">
@@ -1405,7 +1472,9 @@
       <c r="F12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="2:8">
@@ -1424,8 +1493,12 @@
       <c r="F13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="G13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="5">
@@ -1443,7 +1516,9 @@
       <c r="F14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:8">
@@ -1462,7 +1537,9 @@
       <c r="F15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:8">
@@ -1481,8 +1558,12 @@
       <c r="F16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="5">
@@ -1500,7 +1581,9 @@
       <c r="F17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8">
@@ -1519,7 +1602,9 @@
       <c r="F18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8">
@@ -1538,17 +1623,19 @@
       <c r="F19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
+      <c r="G19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="8"/>
@@ -1596,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6465BA89-6806-F043-B279-E32E16410882}">
   <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1639,13 +1726,13 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="42">
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>64</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1654,11 +1741,13 @@
       <c r="F5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1673,11 +1762,13 @@
       <c r="F6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1692,11 +1783,13 @@
       <c r="F7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1711,11 +1804,13 @@
       <c r="F8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1730,11 +1825,13 @@
       <c r="F9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1749,14 +1846,16 @@
       <c r="F10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1771,11 +1870,13 @@
       <c r="F11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1790,11 +1891,13 @@
       <c r="F12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1809,11 +1912,13 @@
       <c r="F13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1828,11 +1933,13 @@
       <c r="F14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1847,11 +1954,13 @@
       <c r="F15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1866,11 +1975,13 @@
       <c r="F16" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>13</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1885,7 +1996,9 @@
       <c r="F17" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="H17" s="6"/>
     </row>
   </sheetData>
